--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2451635.291843085</v>
+        <v>-2454544.239914451</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.70122005611984</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>116.8405921356979</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>19.54119192805682</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.965323866039443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.1116363604059</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443468</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>335.254496158832</v>
       </c>
       <c r="D5" t="n">
-        <v>335.2544961588328</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>335.2544961588328</v>
+        <v>335.254496158832</v>
       </c>
       <c r="F5" t="n">
-        <v>335.2544961588328</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.58659989534475</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.96795805497965</v>
       </c>
       <c r="S5" t="n">
-        <v>147.1260835752738</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>135.5794767460813</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>335.254496158832</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>230.8615565246632</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>26.89760344958929</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.48683303354454</v>
+        <v>49.48683303354459</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620622</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.3070640244811</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>172.0013792499932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>36.75657836292067</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>49.48347745809743</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.511233245426</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>208.7512890664451</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>273.3115862410715</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>213.4755393351346</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>167.4736413216507</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>162.1416289887412</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>53.30076123484789</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>6.228861054224361</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>111.5361117049702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>1.632620083626639</v>
       </c>
       <c r="S19" t="n">
-        <v>105.9893107373036</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>171.9586765026952</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>239.1026360461401</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2369,13 +2369,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696276</v>
+        <v>33.55293486399881</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545302</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2998,7 +2998,7 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4028,10 +4028,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>710.0001061843507</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>710.0001061843507</v>
+        <v>511.862417143344</v>
       </c>
       <c r="T2" t="n">
-        <v>710.0001061843507</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="U2" t="n">
-        <v>520.5803211678658</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V2" t="n">
-        <v>520.5803211678658</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W2" t="n">
-        <v>520.5803211678658</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X2" t="n">
-        <v>520.5803211678658</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>364.227097959543</v>
+        <v>351.5242009272026</v>
       </c>
       <c r="C3" t="n">
-        <v>189.774068678416</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="D3" t="n">
-        <v>189.774068678416</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296054</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>730.3637709601724</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487949</v>
+        <v>540.9439859436875</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323101</v>
+        <v>540.9439859436875</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323101</v>
+        <v>351.5242009272026</v>
       </c>
       <c r="Y3" t="n">
-        <v>364.227097959543</v>
+        <v>351.5242009272026</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>709.3965921992919</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>725.3468614886974</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>748.7753949309537</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>697.3589686102957</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1055.456812593558</v>
+        <v>723.7614081318179</v>
       </c>
       <c r="C5" t="n">
-        <v>1055.456812593558</v>
+        <v>385.1205029208764</v>
       </c>
       <c r="D5" t="n">
-        <v>716.8159073826162</v>
+        <v>385.1205029208764</v>
       </c>
       <c r="E5" t="n">
-        <v>378.1750021716739</v>
+        <v>46.47959770993504</v>
       </c>
       <c r="F5" t="n">
-        <v>39.53409696073162</v>
+        <v>39.53409696073156</v>
       </c>
       <c r="G5" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="H5" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="I5" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="J5" t="n">
-        <v>75.80841166588755</v>
+        <v>75.80841166588749</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772237</v>
+        <v>199.9673209772232</v>
       </c>
       <c r="L5" t="n">
-        <v>390.899188717644</v>
+        <v>390.8991887176426</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553379</v>
+        <v>635.0171176553361</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795139</v>
+        <v>887.6989382795116</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034623</v>
+        <v>1112.96395503462</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285797</v>
+        <v>1270.721434285794</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635331</v>
+        <v>1341.017984635328</v>
       </c>
       <c r="R5" t="n">
-        <v>1341.017984635331</v>
+        <v>1295.595804781813</v>
       </c>
       <c r="S5" t="n">
-        <v>1192.405779003742</v>
+        <v>1295.595804781813</v>
       </c>
       <c r="T5" t="n">
-        <v>1192.405779003742</v>
+        <v>1295.595804781813</v>
       </c>
       <c r="U5" t="n">
-        <v>1055.456812593558</v>
+        <v>1295.595804781813</v>
       </c>
       <c r="V5" t="n">
-        <v>1055.456812593558</v>
+        <v>1295.595804781813</v>
       </c>
       <c r="W5" t="n">
-        <v>1055.456812593558</v>
+        <v>1295.595804781813</v>
       </c>
       <c r="X5" t="n">
-        <v>1055.456812593558</v>
+        <v>956.9548995708717</v>
       </c>
       <c r="Y5" t="n">
-        <v>1055.456812593558</v>
+        <v>723.7614081318179</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.5790727051606</v>
+        <v>705.9665116475388</v>
       </c>
       <c r="C6" t="n">
-        <v>382.5790727051606</v>
+        <v>531.5134823664118</v>
       </c>
       <c r="D6" t="n">
-        <v>382.5790727051606</v>
+        <v>382.5790727051605</v>
       </c>
       <c r="E6" t="n">
         <v>223.341617699705</v>
       </c>
       <c r="F6" t="n">
-        <v>76.80705972659001</v>
+        <v>76.80705972658998</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80705972659001</v>
+        <v>76.80705972658998</v>
       </c>
       <c r="H6" t="n">
-        <v>76.80705972659001</v>
+        <v>76.80705972658998</v>
       </c>
       <c r="I6" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="J6" t="n">
-        <v>37.17946088918721</v>
+        <v>37.179460889187</v>
       </c>
       <c r="K6" t="n">
-        <v>133.0396395322598</v>
+        <v>133.0396395322593</v>
       </c>
       <c r="L6" t="n">
-        <v>308.2580207538319</v>
+        <v>308.2580207538311</v>
       </c>
       <c r="M6" t="n">
-        <v>532.0864752945508</v>
+        <v>532.0864752945497</v>
       </c>
       <c r="N6" t="n">
-        <v>776.2476479203571</v>
+        <v>776.2476479203555</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3876249173527</v>
+        <v>977.3876249173508</v>
       </c>
       <c r="P6" t="n">
-        <v>1119.487123027775</v>
+        <v>1119.487123027773</v>
       </c>
       <c r="Q6" t="n">
-        <v>1164.557677933901</v>
+        <v>1164.557677933898</v>
       </c>
       <c r="R6" t="n">
-        <v>1164.557677933901</v>
+        <v>1164.557677933898</v>
       </c>
       <c r="S6" t="n">
-        <v>1018.40669655808</v>
+        <v>1164.557677933898</v>
       </c>
       <c r="T6" t="n">
-        <v>1018.40669655808</v>
+        <v>968.287916293008</v>
       </c>
       <c r="U6" t="n">
-        <v>1018.40669655808</v>
+        <v>968.287916293008</v>
       </c>
       <c r="V6" t="n">
-        <v>1018.40669655808</v>
+        <v>733.1358080612654</v>
       </c>
       <c r="W6" t="n">
-        <v>764.1693398298785</v>
+        <v>733.1358080612654</v>
       </c>
       <c r="X6" t="n">
-        <v>556.3178396243457</v>
+        <v>733.1358080612654</v>
       </c>
       <c r="Y6" t="n">
-        <v>382.5790727051606</v>
+        <v>733.1358080612654</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.82035969270662</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="C7" t="n">
-        <v>26.82035969270662</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="D7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="E7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="F7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="G7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="H7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="I7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="J7" t="n">
-        <v>26.82035969270662</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="K7" t="n">
-        <v>39.23367185447211</v>
+        <v>39.2336718544719</v>
       </c>
       <c r="L7" t="n">
-        <v>85.02423536994604</v>
+        <v>85.02423536994567</v>
       </c>
       <c r="M7" t="n">
-        <v>136.5622473004335</v>
+        <v>136.562247300433</v>
       </c>
       <c r="N7" t="n">
-        <v>194.7323264062828</v>
+        <v>194.732326406282</v>
       </c>
       <c r="O7" t="n">
-        <v>228.1487206430477</v>
+        <v>228.1487206430467</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6802476386108</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.6802476386108</v>
+        <v>187.6969370748749</v>
       </c>
       <c r="R7" t="n">
-        <v>237.6802476386108</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="S7" t="n">
-        <v>237.6802476386108</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="T7" t="n">
-        <v>237.6802476386108</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="U7" t="n">
-        <v>237.6802476386108</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="V7" t="n">
-        <v>26.82035969270662</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="W7" t="n">
-        <v>26.82035969270662</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="X7" t="n">
-        <v>26.82035969270662</v>
+        <v>63.94821662494967</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.82035969270662</v>
+        <v>63.94821662494967</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>696.6433464846514</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="C8" t="n">
-        <v>696.6433464846514</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>338.3776478779009</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
         <v>55.35983779428172</v>
@@ -4808,7 +4808,7 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.382518524585</v>
+        <v>1952.827968990375</v>
       </c>
       <c r="X8" t="n">
-        <v>1473.382518524585</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="Y8" t="n">
-        <v>1083.243186548773</v>
+        <v>1579.362210729296</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934482</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934482</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934482</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="F10" t="n">
         <v>61.70688273934482</v>
@@ -4996,16 +4996,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>351.1240527763055</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>61.70688273934482</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>61.70688273934482</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.70688273934482</v>
+        <v>356.5099238196483</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,19 +5115,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>853.936052826184</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>703.8194134138482</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>555.9063198314551</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>409.0163723335447</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>241.8202730484247</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>100.1084418906227</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2445.313972384678</v>
       </c>
       <c r="S19" t="n">
-        <v>2272.857469997003</v>
+        <v>2262.459138039582</v>
       </c>
       <c r="T19" t="n">
-        <v>2272.857469997003</v>
+        <v>2042.857673062523</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.7822433412</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.366912656562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.29168600076</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6446,10 +6446,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,16 +6549,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6646,22 +6646,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7117,13 +7117,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>339.2210964832967</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.38049896054394</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>96.60328892050887</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22683,16 +22683,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.75814064147345</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22702,34 +22702,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>110.5038366578065</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.7255247667967</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.03697526434117</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>64.74262662649505</v>
       </c>
       <c r="S19" t="n">
-        <v>75.03697526434104</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>45.44677382459309</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>47.4203622904509</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516651</v>
+        <v>133.693886234629</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26314,37 +26314,37 @@
         <v>32460.9111614366</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450027</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208455</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.491613072</v>
+        <v>163527.4916130709</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.9319010267</v>
+        <v>216759.9319010276</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742652</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217645</v>
+        <v>68492.66272217644</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.69384958498</v>
+        <v>38020.69384958474</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.52082544624</v>
+        <v>52354.52082544649</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>180465.3416072034</v>
       </c>
       <c r="C4" t="n">
-        <v>235058.4539805411</v>
+        <v>235058.4539805414</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26430,7 +26430,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
         <v>16046.583971892</v>
@@ -26439,7 +26439,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="K4" t="n">
         <v>24037.44323498551</v>
@@ -26448,16 +26448,16 @@
         <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="O4" t="n">
+        <v>24037.44323498547</v>
+      </c>
+      <c r="P4" t="n">
         <v>24037.44323498544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.0086441749</v>
+        <v>68740.00864417483</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-796347.1333782257</v>
+        <v>-796776.6922448147</v>
       </c>
       <c r="C6" t="n">
-        <v>-426273.8657445739</v>
+        <v>-426273.865744573</v>
       </c>
       <c r="D6" t="n">
-        <v>-435109.9153525825</v>
+        <v>-435109.9153525833</v>
       </c>
       <c r="E6" t="n">
-        <v>-678254.991385564</v>
+        <v>-678289.7293109996</v>
       </c>
       <c r="F6" t="n">
-        <v>-76811.78381129878</v>
+        <v>-76846.52173673447</v>
       </c>
       <c r="G6" t="n">
-        <v>-76811.78381129878</v>
+        <v>-76846.52173673453</v>
       </c>
       <c r="H6" t="n">
-        <v>-76811.78381129881</v>
+        <v>-76846.5217367345</v>
       </c>
       <c r="I6" t="n">
-        <v>-76811.78381129878</v>
+        <v>-76846.52173673447</v>
       </c>
       <c r="J6" t="n">
         <v>-154642.1333178631</v>
       </c>
       <c r="K6" t="n">
-        <v>-124170.1644452717</v>
+        <v>-124170.1644452715</v>
       </c>
       <c r="L6" t="n">
-        <v>-138503.9914211329</v>
+        <v>-138503.9914211332</v>
       </c>
       <c r="M6" t="n">
-        <v>-243295.8511472846</v>
+        <v>-243295.8511472847</v>
       </c>
       <c r="N6" t="n">
-        <v>-86149.47059568665</v>
+        <v>-86149.47059568664</v>
       </c>
       <c r="O6" t="n">
         <v>-105577.1885893185</v>
       </c>
       <c r="P6" t="n">
-        <v>-86149.47059568667</v>
+        <v>-86149.47059568664</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>675.6392329228379</v>
+        <v>675.6392329228372</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588328</v>
+        <v>335.254496158832</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099333</v>
+        <v>127.1692920099325</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148462</v>
+        <v>178.0714316148469</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925128</v>
+        <v>147.7289089925119</v>
       </c>
       <c r="D4" t="n">
-        <v>206.8604605673304</v>
+        <v>206.8604605673312</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27036,10 +27036,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925126</v>
+        <v>147.7289089925117</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673306</v>
+        <v>206.8604605673315</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925128</v>
+        <v>147.7289089925119</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673304</v>
+        <v>206.8604605673312</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>15.46194513738629</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>206.3225764820341</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.9592312697914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>30.0183956121756</v>
       </c>
       <c r="D5" t="n">
-        <v>19.42854546185015</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>46.67587391342897</v>
+        <v>46.67587391342983</v>
       </c>
       <c r="F5" t="n">
-        <v>71.62154958287863</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170897</v>
+        <v>311.6581577170898</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7619939834402</v>
+        <v>105.7619939834403</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805497948</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.1260835752739</v>
       </c>
       <c r="T5" t="n">
         <v>211.2059571334993</v>
       </c>
       <c r="U5" t="n">
-        <v>115.5488851521719</v>
+        <v>251.1283618982533</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>34.47660451963708</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>155.3763821313904</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>139.635580200278</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>135.8902554169238</v>
       </c>
       <c r="H6" t="n">
-        <v>98.19999526577864</v>
+        <v>98.19999526577865</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55.44979659362718</v>
+        <v>55.44979659362728</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.6894715620622</v>
       </c>
       <c r="T6" t="n">
-        <v>194.3070640244811</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8457727555612</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.68131652731114</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>111.8588946552917</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>118.8108916074427</v>
+        <v>118.8108916074428</v>
       </c>
       <c r="J7" t="n">
-        <v>40.85695726823366</v>
+        <v>40.85695726823374</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.48347745809733</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.511233245426</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.7838044383972</v>
@@ -27831,7 +27831,7 @@
         <v>286.2525730384985</v>
       </c>
       <c r="V7" t="n">
-        <v>43.38635425738289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>108.6187838311903</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.7654293822784</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28068,16 +28068,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>84.66400200217734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>56.44302436335354</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29518,13 +29518,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.716137619790301</v>
+        <v>2.716137619790298</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867743</v>
+        <v>27.8166443986774</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7138955869657</v>
+        <v>104.7138955869656</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076773</v>
+        <v>230.528785307677</v>
       </c>
       <c r="K5" t="n">
-        <v>345.5028907534008</v>
+        <v>345.5028907534004</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350583</v>
+        <v>428.6268874350579</v>
       </c>
       <c r="M5" t="n">
-        <v>476.9299998310041</v>
+        <v>476.9299998310036</v>
       </c>
       <c r="N5" t="n">
-        <v>484.6472258432333</v>
+        <v>484.6472258432328</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864434</v>
+        <v>457.638632386443</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978703</v>
+        <v>390.5839848978699</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891301</v>
+        <v>293.3123063891298</v>
       </c>
       <c r="R5" t="n">
-        <v>170.6175797591526</v>
+        <v>170.6175797591525</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097155</v>
+        <v>61.89398601097148</v>
       </c>
       <c r="T5" t="n">
-        <v>11.88989243063205</v>
+        <v>11.88989243063204</v>
       </c>
       <c r="U5" t="n">
-        <v>0.217291009583224</v>
+        <v>0.2172910095832238</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286859</v>
+        <v>1.453261746286857</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071782</v>
+        <v>14.03544897071781</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645546</v>
+        <v>50.03554696645541</v>
       </c>
       <c r="J6" t="n">
-        <v>137.3013652489703</v>
+        <v>137.3013652489702</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501899</v>
+        <v>234.6699022501896</v>
       </c>
       <c r="L6" t="n">
-        <v>315.542643640048</v>
+        <v>315.5426436400477</v>
       </c>
       <c r="M6" t="n">
-        <v>368.2233819429466</v>
+        <v>368.2233819429462</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801072</v>
+        <v>377.9691591801068</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808036</v>
+        <v>345.7679383808033</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5092539905143</v>
+        <v>277.509253990514</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.507587122512</v>
+        <v>185.5075871225119</v>
       </c>
       <c r="R6" t="n">
-        <v>90.22970737033677</v>
+        <v>90.22970737033667</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177563</v>
+        <v>26.9936995417756</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340451</v>
+        <v>5.857664670340445</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360917</v>
+        <v>0.09560932541360909</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.218365829860855</v>
+        <v>1.218365829860854</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276288</v>
+        <v>10.83237983276287</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981554</v>
+        <v>36.63958331981551</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116245</v>
+        <v>86.13846417116237</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238338</v>
+        <v>141.5519573238337</v>
       </c>
       <c r="L7" t="n">
-        <v>181.137770741313</v>
+        <v>181.1377707413128</v>
       </c>
       <c r="M7" t="n">
-        <v>190.9843818571884</v>
+        <v>190.9843818571882</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4432001277072</v>
+        <v>186.443200127707</v>
       </c>
       <c r="O7" t="n">
-        <v>172.2104720243326</v>
+        <v>172.2104720243324</v>
       </c>
       <c r="P7" t="n">
-        <v>147.355809095171</v>
+        <v>147.3558090951709</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.0215241713485</v>
+        <v>102.0215241713484</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174352</v>
+        <v>54.78215813174347</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857507</v>
+        <v>21.23279359857505</v>
       </c>
       <c r="T7" t="n">
-        <v>5.20574490940547</v>
+        <v>5.205744909405465</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06645631799241035</v>
+        <v>0.06645631799241029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.482880780991</v>
+        <v>49.48288078099074</v>
       </c>
       <c r="K5" t="n">
-        <v>125.4130397084202</v>
+        <v>125.4130397084199</v>
       </c>
       <c r="L5" t="n">
-        <v>192.860472465071</v>
+        <v>192.8604724650706</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5837666037313</v>
+        <v>246.5837666037308</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466424</v>
+        <v>255.2341622466419</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647567</v>
+        <v>227.5404209647562</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891426008</v>
+        <v>159.3509891426004</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651468059</v>
+        <v>71.0066165146803</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.46373858230362</v>
+        <v>10.46373858230348</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327583087</v>
+        <v>96.82846327583061</v>
       </c>
       <c r="L6" t="n">
-        <v>176.9882638601738</v>
+        <v>176.9882638601736</v>
       </c>
       <c r="M6" t="n">
-        <v>226.0893480209283</v>
+        <v>226.0893480209279</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967739</v>
+        <v>246.6274470967735</v>
       </c>
       <c r="O6" t="n">
-        <v>203.1716939363592</v>
+        <v>203.1716939363588</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761841</v>
+        <v>143.5348465761838</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.52581303649052</v>
+        <v>45.52581303649035</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.53869915329847</v>
+        <v>12.53869915329832</v>
       </c>
       <c r="L7" t="n">
-        <v>46.25309446007469</v>
+        <v>46.25309446007452</v>
       </c>
       <c r="M7" t="n">
-        <v>52.05859790958331</v>
+        <v>52.05859790958314</v>
       </c>
       <c r="N7" t="n">
-        <v>58.75765566247398</v>
+        <v>58.75765566247378</v>
       </c>
       <c r="O7" t="n">
-        <v>33.75393357248979</v>
+        <v>33.75393357248959</v>
       </c>
       <c r="P7" t="n">
-        <v>9.627805046023383</v>
+        <v>9.627805046023241</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
